--- a/test/result/result.xlsx
+++ b/test/result/result.xlsx
@@ -181,6 +181,90 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>25</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="6667500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>37</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -483,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,896 +610,1659 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
+          <t>https://transparencia.enargas.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bloques, Interbloques e Integración</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
+          <t>Reclamos resueltos por las Distribuidoras de gas natural</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
+          <t>https://transparencia.enargas.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Comisiones</t>
-        </is>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
+          <t>Reclamos resueltos por el ENARGAS</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – COMISIONES.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diarios de Sesiones</t>
-        </is>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
+          <t>Personal</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dictamenes</t>
-        </is>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
+          <t>Cine.Ar Play</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B6" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dietas y Gastos de Representación - Legisladores/as</t>
-        </is>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
+          <t>Ejecuciones presupuestarias</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ejecución Presupuestaria de la Cámara de Diputados de la Nación</t>
-        </is>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
+          <t>Finanzas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentación Ejecución Presupuestaria.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B8" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Escala Salarial</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
+          <t>Servicio REFEFO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Doc Escala Salarial.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B9" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Estructura orgánica de la Cámara de Diputados de la Nación</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
+          <t>Puntos de conexión REFEFO</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Doc Estructura Orgánica.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B10" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Estructura orgánica de la Cámara de Diputados de la Nación</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
+          <t>Cobertura Satélite ARSAT-2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; '' is too short &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B11" t="b">
-        <v>1</v>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Expedientes</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
+          <t>Cobertura Satélite ARSAT-1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B12" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>https://monitoreo.datos.gob.ar/catalog/jgm/data.json</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Firmantes Leyes Sancionadas</t>
-        </is>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
+          <t>Registro Legajo Multipropósito - RLM</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Doc_Firmantes leyes sancionadas.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t xml:space="preserve">'accessURL' is a required property &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B13" t="b">
-        <v>1</v>
+          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Giro a Comisiones</t>
-        </is>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
+          <t>Solicitudes de acceso a la información pública</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentacion-giro comisiones.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B14" t="b">
-        <v>1</v>
+          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Grupos Parlamentarios de Amistad</t>
-        </is>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
+          <t>Reclamos sobre solicitudes de acceso a la información pública</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Doc Grupos Parlamentarios de Amistad.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B15" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Diputados</t>
-        </is>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
+          <t>Solicitudes de Acceso a la Información Pública (2015 y 2016)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – DIPUTADOS.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Leyes Promulgadas</t>
-        </is>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
+          <t>Nombres de personas físicas</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – LEYESPRMULGADAS.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Leyes Sancionadas</t>
-        </is>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
+          <t>Resultados Electorales 2015</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sumario de leyes</t>
-        </is>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
+          <t>Resultados Provisorios  Elecciones Primarias, Abiertas, Simultáneas y Obligatorias (PASO) 2019</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – SUMARIO LEYES.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Licitaciones y Contrataciones</t>
-        </is>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
+          <t>Inmuebles Propios del Estado Nacional y Alquilados</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentación Licitaciones y Contrataciones.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B20" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Misiones Oficiales</t>
-        </is>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
+          <t>Contratos de Alquiler del Estado Nacional como Locador</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B21" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Movimientos de proyectos</t>
-        </is>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
+          <t>Registro Único de Audiencias de Gestión de Intereses</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentacion-movimientos proyectos .pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nómina de personal</t>
-        </is>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
+          <t>Resultados Provisorios Elecciones Generales 2019</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentación Nómina de Personal.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B23" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Periodos Parlamentarios</t>
-        </is>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
+          <t>Índice de Tipo de Cambio Real Sectorial Efectivo - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B24" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Proyectos Parlamentarios</t>
-        </is>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
+          <t>Indicador de Importaciones de Bienes de Capital Productivo - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION - PROYECTOS PARLAMENTARIOS.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B25" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Publicaciones</t>
-        </is>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
+          <t>Indicadores de Empleo de Trabajadores Registrados (OEDE) - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – PUBLICACIONES.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B26" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Redes Sociales</t>
-        </is>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
+          <t>Indicadores de Remuneraciones de Trabajadores Registrados (OEDE) - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B27" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Resultado de proyectos</t>
-        </is>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
+          <t>Ahora 12 - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; '' is too short &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B28" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>RESULTADO PROYECTOS</t>
-        </is>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
+          <t>GPS Empresas - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – resultado proyectos.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B29" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sesiones</t>
-        </is>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
+          <t>Indicadores Sectoriales de Agroindustria - Discontinuado</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/DOCUMENTACION – SESIONES DESDE 1983.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B30" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Subsidios</t>
-        </is>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
+          <t>Series de Tiempo vacunas COVID</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B31" t="b">
-        <v>1</v>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Viajes Nacionales</t>
-        </is>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
+          <t>REFEGLO - Registro Federal de Gobiernos Locales</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B32" t="b">
-        <v>1</v>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Votaciones Nominales</t>
-        </is>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
+          <t>Base de Series de Tiempo de la Administración Pública Nacional</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; '' is too short &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B33" t="b">
-        <v>1</v>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">None is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Votaciones Nominales</t>
-        </is>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
+          <t>Sistema de Contrataciones Electrónicas</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'http://www4.hcdn.gob.ar/Datos_doc/Documentación Votaciones Nominales.pdf' is not valid under any of the given schemas &amp;&amp; </t>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Asignación Salarial de las Autoridades Superiores del Poder Ejecutivo Nacional</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Planes de Apertura de Datos</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Puntos Digitales</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Servicio de normalización de datos geográficos</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Red de Datos Abiertos de la Administración Pública Nacional (APN)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Nómina del personal civil de la Administración Pública Nacional (APN)</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Puestos de trabajo en la Administración Pública Nacional (APN)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Contratar</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Puntos WiFi País Digital</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trámites a Distancia (TAD)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Tercer Plan de Acción Nacional de Gobierno Abierto</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Indicadores de la Red de Datos Abiertos de la Administración Pública Nacional (APN)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Prónostico del Tiempo a 5 días</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Datos meteorológicos horarios</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Estado del Tiempo presente</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Observaciones diarias de Temperaturas Extremas</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Registro de Temperatura (365 días)</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Radiación Solar</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Estadísticas Climáticas Normales</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Listado de Estaciones Meteorológicas del SMN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>None</t>
         </is>
       </c>
     </row>
@@ -1453,6 +2300,26 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A31" r:id="rId30"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A32" r:id="rId31"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1464,7 +2331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1480,7 +2347,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accessible (15/10/2022)</t>
+          <t>Accesible (22/04/2023)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1547,28 +2414,30 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://datos.hcdn.gob.ar/</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+          <t>https://transparencia.enargas.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CKAN</t>
+          <t>Datos abiertos del Ente Nacional Regulador del Gas</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1577,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1589,12 +2458,366 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.enacom.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>no-title</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>https://datos.arsat.com.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portal de datos abiertos de ARSAT</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/jgm/data.json</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Datos de la Jefatura de Gabinete de Ministros</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Datos de la Agencia de Acceso a la Información Pública</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1169</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Datos APN</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>-470</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>136</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Datos Modernización</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E8" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>73</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Datos Meteorologicos</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1606,14 +2829,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Chartpie de % de tipos de distribuciones</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Chartpie de % de dataset erroneos</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Bar Label de Actualizacion de Accrual Periodicy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>

--- a/test/result/result.xlsx
+++ b/test/result/result.xlsx
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,337 +610,342 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://transparencia.enargas.gob.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Reclamos resueltos por las Distribuidoras de gas natural</t>
+          <t>Índices de precios de materiales de la construcción</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>https://transparencia.enargas.gob.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Reclamos resueltos por el ENARGAS</t>
+          <t>Población. 2023</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Personal</t>
+          <t>Permisos, Registros y Demoliciones</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Cine.Ar Play</t>
+          <t>Indicadores de Producción Primaria Agrícola</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Ejecuciones presupuestarias</t>
+          <t>Informes semanales Covid 19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:mesadeinformacionssp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Finanzas</t>
+          <t>Población. 2022</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Servicio REFEFO</t>
+          <t>Servicio de Mapa Base (WMS) de la Ciudad de Rosario</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:datos@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Puntos de conexión REFEFO</t>
+          <t>Guías turísticos habilitados</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:turismo@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cobertura Satélite ARSAT-2</t>
+          <t>Estadísticas Vitales Registradas en Rosario. 2021</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cobertura Satélite ARSAT-1</t>
+          <t xml:space="preserve">Residuos No Peligrosos Industriales </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/jgm/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Registro Legajo Multipropósito - RLM</t>
+          <t xml:space="preserve">Calidad de Aire </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -950,1319 +955,7719 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">'accessURL' is a required property &amp;&amp; </t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Solicitudes de acceso a la información pública</t>
+          <t>Residuos Peligrosos</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Reclamos sobre solicitudes de acceso a la información pública</t>
+          <t>Presupuesto 2021 - Gastos ejecutados</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Solicitudes de Acceso a la Información Pública (2015 y 2016)</t>
+          <t>Anuario de población y estadísticas vitales. Colección histórica</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Nombres de personas físicas</t>
+          <t>Convocatorias</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:indicadorescult@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Resultados Electorales 2015</t>
+          <t xml:space="preserve">Presupuesto 2021 - Recursos ejecutados </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Resultados Provisorios  Elecciones Primarias, Abiertas, Simultáneas y Obligatorias (PASO) 2019</t>
+          <t>Artes escénicas</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:indicadorescult@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Inmuebles Propios del Estado Nacional y Alquilados</t>
+          <t>Atención Turnos CMD 2022</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Contratos de Alquiler del Estado Nacional como Locador</t>
+          <t>Franquicias</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:reclamos_franquicias@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Registro Único de Audiencias de Gestión de Intereses</t>
+          <t>Clubes</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Resultados Provisorios Elecciones Generales 2019</t>
+          <t xml:space="preserve">Intervenciones Defensa Civil </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:defcivil@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Índice de Tipo de Cambio Real Sectorial Efectivo - Discontinuado</t>
+          <t>Actividades culturales</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:indicadorescult@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Indicador de Importaciones de Bienes de Capital Productivo - Discontinuado</t>
+          <t>Estadísticas Vitales Registradas en Rosario. 2020</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Indicadores de Empleo de Trabajadores Registrados (OEDE) - Discontinuado</t>
+          <t>Atención en Distritos Municipales</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:transformaciondigital@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Indicadores de Remuneraciones de Trabajadores Registrados (OEDE) - Discontinuado</t>
+          <t>Presupuesto 2020 - Recursos ejecutados</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ahora 12 - Discontinuado</t>
+          <t>Presupuesto 2020 - Gastos ejecutados</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GPS Empresas - Discontinuado</t>
+          <t>Instituciones inscriptas en el Registro municipal Discapacidad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Indicadores Sectoriales de Agroindustria - Discontinuado</t>
+          <t>Estadísticas del Transporte Urbano de Pasajeros</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Series de Tiempo vacunas COVID</t>
+          <t>Choferes de Licencias Remises</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>REFEGLO - Registro Federal de Gobiernos Locales</t>
+          <t>Choferes de Licencias Taxis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Base de Series de Tiempo de la Administración Pública Nacional</t>
+          <t>Evolución anual de licencias de remises</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sistema de Contrataciones Electrónicas</t>
+          <t>Evolución anual de licencias de taxis</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Asignación Salarial de las Autoridades Superiores del Poder Ejecutivo Nacional</t>
+          <t>Viajes del Sistema de Bicicletas Públicas Mi bici tu bici</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Planes de Apertura de Datos</t>
+          <t>Capacitación en Ley Micaela</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:mujereseigualdad@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Puntos Digitales</t>
+          <t>Contactos por whatsapp “Contacto Violeta''</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:mujereseigualdad@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Servicio de normalización de datos geográficos</t>
+          <t xml:space="preserve">Llamadas al teléfono Verde </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:mujereseigualdad@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Red de Datos Abiertos de la Administración Pública Nacional (APN)</t>
+          <t>Coronavirus Covid 19</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:mesadeinformacionssp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Nómina del personal civil de la Administración Pública Nacional (APN)</t>
+          <t>Informes sectoriales</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Puestos de trabajo en la Administración Pública Nacional (APN)</t>
+          <t>Anuario Rosario Productiva</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Contratar</t>
+          <t>Informe trimestral del Mercado Laboral del Gran Rosario</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Puntos WiFi País Digital</t>
+          <t>Informes de facturación mensuales históricos</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cie@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Trámites a Distancia (TAD)</t>
+          <t>Población. 2021</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Tercer Plan de Acción Nacional de Gobierno Abierto</t>
+          <t>Estadísticas Vitales Registradas en Rosario. 2019</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Indicadores de la Red de Datos Abiertos de la Administración Pública Nacional (APN)</t>
+          <t>Rangos de precios base por m2 para contribución de mayor edificabilidad y altura</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Prónostico del Tiempo a 5 días</t>
+          <t>Población. 2020</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Datos meteorológicos horarios</t>
+          <t>Estadísticas Vitales de residentes rosarinos. 2018</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Estado del Tiempo presente</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Matrimonios. 2018</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'distribution' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Observaciones diarias de Temperaturas Extremas</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Matrimonios. 2018</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Registro de Temperatura (365 días)</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Defunciones fetales. 2018</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Radiación Solar</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Defunciones infantiles. 2018</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Estadísticas Climáticas Normales</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Defunciones. 2018</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Listado de Estaciones Meteorológicas del SMN</t>
+          <t>Estadísticas Vitales de residentes rosarinos. Nacimientos. 2018</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Si</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>None</t>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Estadísticas Vitales Registradas en Rosario. 2018</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Población 2018</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Servicios de recolección, barrido y limpieza de residuos</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Presupuesto 2019 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Alumbrado Público</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Pedidos de Acceso a la Información Pública</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:denuncias-inv@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Presupuesto 2019 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Normativa municipal</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:normativa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Censo Arbolado 2015</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:parquesypaseos@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Compras y licitaciones</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Resultados Electorales 2019</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2018 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Presupuesto 2017 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Presupuesto 2018 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Presupuesto 2017 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Población. 2019</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Violencia de Género 2018</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:gestioninfosds@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Censos de volumen y composición vehicular</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Encuesta a usuarios del Sistema de Bicicletas Públicas</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Encuesta de Percepción a Pasajeros del Transporte Urbano 2018</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Encuesta de Percepción a Pasajeros del Transporte Urbano 2017</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Vecinales.</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Centros de Convivencia Barrial</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Certificado de aspectos higrotérmicos y eficiencia energética</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:eficienciaenergetica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Comercios adheridos "Precios Justos"</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Precios Justos</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Facturación total de la actividad económica</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cie@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Centros culturales municipales</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Resultados Presupuesto Participativo Joven 2018</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Resultados Presupuesto Participativo 2018</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Lugares de interés y datos útiles</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Inventario de Gases de Efecto Invernadero</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Violencia de Género 2016 y 2017</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:gestioninfosds@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Agentes de Cobro Habilitados</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:pac@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Voluntariado Social</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2016 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Defunciones infantiles. 2016.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Nacimientos. 2016.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Nacimientos. Evolución 2010-2016</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Defunciones fetales. Evolución 2010-2016</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'distribution' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Estadísticas Vitales de residentes rosarinos. Defunciones. 2016</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'distribution' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Operativos Integrales 2017</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cil_scycc@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Presupuesto 2016 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Centros comerciales a cielo abierto</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Zonas y tarifas de Estacionamiento</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Puestos de Venta de Estacionamiento Medido</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:tylogtransito@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Parquímetros</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:tylogtransito@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Estadísticas del Sistema de Bicicletas Públicas</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Leishmaniasis cutánea mucosa/visceral</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Esquinas semaforizadas</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:semaforos@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Triquinosis</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Tétanos otras edades</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Encuesta de Percepción a Pasajeros del Transporte Urbano 2014</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Encuesta de Percepción a Pasajeros del Transporte Urbano 2015</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Encuesta de Percepción a Pasajeros del Transporte Urbano 2016</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:emr_datosabiertos@emr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Partos en efectores municipales</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadisticassp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Internados en los efectores de la red de Salud Municipal</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadisticassp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Atención ambulatoria en guardia</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadisticassp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Accidentes y lesionados</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadisticassp@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Dispositivos Solares</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Estadísticas de la flota del transporte urbano de pasajeros</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Intervenciones por vehículos abandonados</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Catálogo de la Videoteca del Centro Audiovisual Rosario</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Catálogo de participación de artistas en muestras y exposiciones</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:biblioteca@museocastagnino.org' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Catálogos de Fondos Bibliográficos en Bibliotecas Municipales</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estrada@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Operativos de Alcoholemia y Narcolemia</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cil_scycc@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Operativos de Seguridad</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cil_scycc@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Alarmas Comunitarias</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'title' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cil_scycc@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Estadísticas del Servicio de Taxi</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Encuesta Origen Destino 2008</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Empresas de Remises</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Empresas de Radiotaxi</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Presupuesto 2002 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2002 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Presupuesto 2003 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Presupuesto 2003 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Presupuesto 2001 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Presupuesto 2001 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Presupuesto 2004 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Presupuesto 2004 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Presupuesto 2005 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Presupuesto 2005 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Presupuesto 2006 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Presupuesto 2006 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Presupuesto 2007 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2007 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Presupuesto 2008 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2008 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2009 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2009 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2010 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2010 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2011 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2011 - Gastos ejecutados </t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2012 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Presupuesto 2012 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presupuesto 2000 - Recursos ejecutados </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Resultados Presupuesto Participativo 2017</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Resultados Presupuesto Participativo Joven 2017</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Presupuesto 2013 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Presupuesto 2013 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Presupuesto 2014 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Presupuesto 2000 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Presupuesto 2014 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Presupuesto 2015 - Recursos ejecutados</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Presupuesto 2015 - Gastos ejecutados</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Cámaras de videovigilancia</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cil_scycc@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Transportes especiales accesibles habilitados</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Transportes especiales habilitados</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Transportes escolares habilitados</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Taxis habilitados</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Remises habilitados</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:licenciasyhab@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Facturación del Sector Hotelería Restaurantes</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cie@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Facturación del Sector Tecnológico</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cie@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Facturación y actividades vinculadas del Sector Construcción</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cie@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Finales de obra de edificación y demoliciones</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:obrasparticulares@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Mercados y Ferias</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Agenda de actividades</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Eventos sin notificación</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Rickettsiosis</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Rubéola</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Sarampión</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Bibliotecas municipales</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Escuelas y centros de capacitación municipales</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Inmuebles con valor patrimonial</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Subdivisión de la tierra</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Áreas Barriales</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Fiebre del Nilo Occidental</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Horarios del Transporte Urbano de Pasajeros</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Empresas y líneas del Transporte Urbano de Pasajeros</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Incidencias del tránsito</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cmm@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Botulismo</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Resultados Presupuesto Participativo Joven 2016</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Centros de recepción de residuos</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:separe@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Contenedores de residuos domiciliarios</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:consultashu@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Islas de separación de residuos</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:separe@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Resultados Presupuesto Participativo 2016</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:participa@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Noticias municipales</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:contacto@rosarionoticias.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Defunciones infantiles y fetales. 2015</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'distribution' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales de residentes rosarinos. Nacimientos. 2015.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'distribution' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Zonas WiFi</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:datos@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Recorridos de Transporte Urbano de Pasajeros</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Puestos de recarga de tarjeta Movi</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Estadísticas vitales registradas en Rosario.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'downloadURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:estadistica@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Paradas del Transporte Urbano de Pasajeros</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Estaciones de bicicletas públicas</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Ciclovías y Bicisendas</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Carriles exclusivos</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Organismos judiciales</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Comisarias, centros de denuncia, guardia urbana municipal, emergencias y bomberos</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Hospitales y Centros de Salud</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Predios de recreación</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Áreas de Servicios Urbanos</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Centros municipales de distrito</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Plazas</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Parques, parques temáticos y paseos</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:equipoweb@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Áreas inundables</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:tramur@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Clasificación Urbanística</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:tramur@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Áreas urbanísticas</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:tramur@rosario.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Bicicleteros en playas de estacionamiento</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:infoetr@etr.gov.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Canteros</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Circunvalación</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Autopistas</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Centros de Manzanas</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Nomenclador de calles</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Límites del Municipio</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Radios Tributarios</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Barrios</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Secciones Catastrales</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Distritos Descentralizados</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Parcelas (formato GML)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Vías del Ferrocarril</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Hidrografía</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cartografia@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Ejes de calles</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Manzanas</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Espacios Verdes: Parques y Plazas</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Puentes y Aliviadores</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Islas del Paraná</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:cartografia@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Parcelas (formato CSV)</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:noemailprovided@usa.gov' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Chagas agudo vectorial</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Rabia humana (Accidente por mordedura o contacto infectante presuntamente a virus rábico)</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>Síndrome de rubéola congénita</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Psitacosis</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Poliomielitis: parálisis aguda fláccida en menores de 15 años</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Paludismo</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Meningitis</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leucoencefalopatía multifocal progresiva (LMP) </t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Leptospirosis</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Hidatidosis</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>Hantavirus</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Zika</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Fiebre hemorrágica argentina</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Fiebre chikungunya</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Fiebre amarilla</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enfermedad tipo influenza (ETI) </t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Encefalitis de San Luis</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Dengue</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Coqueluche</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Chagas agudo congénito</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="inlineStr">
+        <is>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'title' is a required property &amp;&amp; 'description' is a required property &amp;&amp; 'publisher' is a required property &amp;&amp; 'superThemeTaxonomy' is a required property &amp;&amp; </t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Brucelosis aguda</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'superTheme' is a required property &amp;&amp; 'accrualPeriodicity' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'accessURL' is a required property &amp;&amp; 'issued' is a required property &amp;&amp; 'identifier' is a required property &amp;&amp; 'mailto:sime@rosario.gob.ar' is not valid under any of the given schemas &amp;&amp; </t>
         </is>
       </c>
     </row>
@@ -2320,6 +8725,206 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A51" r:id="rId50"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A52" r:id="rId51"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A57" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A58" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A59" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A60" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A61" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A62" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A63" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A64" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A65" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A66" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A67" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A68" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A69" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A70" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A71" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A72" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A73" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A74" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A75" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A76" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A77" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A78" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A79" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A80" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A81" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A82" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A83" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A84" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A85" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A86" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A87" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A88" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A89" r:id="rId88"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A90" r:id="rId89"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A91" r:id="rId90"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A92" r:id="rId91"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A93" r:id="rId92"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A94" r:id="rId93"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A95" r:id="rId94"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A96" r:id="rId95"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A97" r:id="rId96"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A98" r:id="rId97"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A99" r:id="rId98"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A100" r:id="rId99"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A101" r:id="rId100"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A102" r:id="rId101"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A103" r:id="rId102"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A104" r:id="rId103"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A105" r:id="rId104"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A106" r:id="rId105"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A107" r:id="rId106"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A108" r:id="rId107"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A110" r:id="rId109"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A111" r:id="rId110"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A112" r:id="rId111"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A113" r:id="rId112"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A114" r:id="rId113"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A115" r:id="rId114"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A116" r:id="rId115"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A117" r:id="rId116"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A118" r:id="rId117"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A119" r:id="rId118"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A120" r:id="rId119"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A121" r:id="rId120"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A122" r:id="rId121"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A123" r:id="rId122"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A124" r:id="rId123"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A125" r:id="rId124"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A126" r:id="rId125"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A127" r:id="rId126"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A128" r:id="rId127"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A129" r:id="rId128"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A130" r:id="rId129"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A131" r:id="rId130"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A132" r:id="rId131"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A133" r:id="rId132"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A134" r:id="rId133"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A135" r:id="rId134"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A136" r:id="rId135"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A137" r:id="rId136"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A138" r:id="rId137"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A139" r:id="rId138"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A140" r:id="rId139"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A141" r:id="rId140"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A142" r:id="rId141"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A143" r:id="rId142"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A144" r:id="rId143"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A145" r:id="rId144"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A146" r:id="rId145"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A147" r:id="rId146"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A148" r:id="rId147"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A149" r:id="rId148"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A150" r:id="rId149"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A151" r:id="rId150"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A152" r:id="rId151"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A153" r:id="rId152"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A154" r:id="rId153"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A155" r:id="rId154"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A156" r:id="rId155"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A157" r:id="rId156"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A158" r:id="rId157"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A159" r:id="rId158"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A160" r:id="rId159"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A161" r:id="rId160"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A162" r:id="rId161"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A163" r:id="rId162"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A164" r:id="rId163"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A165" r:id="rId164"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A166" r:id="rId165"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A167" r:id="rId166"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A168" r:id="rId167"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A169" r:id="rId168"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A170" r:id="rId169"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A171" r:id="rId170"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A172" r:id="rId171"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A173" r:id="rId172"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A174" r:id="rId173"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A175" r:id="rId174"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A176" r:id="rId175"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A177" r:id="rId176"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A178" r:id="rId177"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A179" r:id="rId178"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A180" r:id="rId179"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A181" r:id="rId180"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A182" r:id="rId181"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A183" r:id="rId182"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A184" r:id="rId183"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A185" r:id="rId184"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A186" r:id="rId185"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A187" r:id="rId186"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A188" r:id="rId187"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A189" r:id="rId188"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A190" r:id="rId189"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A191" r:id="rId190"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A192" r:id="rId191"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A193" r:id="rId192"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A194" r:id="rId193"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A195" r:id="rId194"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A196" r:id="rId195"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A197" r:id="rId196"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A198" r:id="rId197"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A199" r:id="rId198"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A200" r:id="rId199"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A201" r:id="rId200"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A202" r:id="rId201"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A203" r:id="rId202"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A204" r:id="rId203"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A205" r:id="rId204"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A206" r:id="rId205"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A207" r:id="rId206"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A208" r:id="rId207"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A209" r:id="rId208"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A210" r:id="rId209"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A211" r:id="rId210"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A212" r:id="rId211"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A213" r:id="rId212"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A214" r:id="rId213"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A215" r:id="rId214"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A216" r:id="rId215"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A217" r:id="rId216"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A218" r:id="rId217"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A219" r:id="rId218"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A220" r:id="rId219"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A221" r:id="rId220"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A222" r:id="rId221"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A223" r:id="rId222"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A224" r:id="rId223"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A225" r:id="rId224"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A226" r:id="rId225"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A227" r:id="rId226"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A228" r:id="rId227"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A229" r:id="rId228"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A230" r:id="rId229"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A231" r:id="rId230"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A232" r:id="rId231"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A233" r:id="rId232"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A234" r:id="rId233"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A235" r:id="rId234"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A236" r:id="rId235"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A237" r:id="rId236"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A238" r:id="rId237"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A239" r:id="rId238"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A240" r:id="rId239"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A241" r:id="rId240"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A242" r:id="rId241"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A243" r:id="rId242"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A244" r:id="rId243"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A245" r:id="rId244"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A246" r:id="rId245"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A247" r:id="rId246"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A248" r:id="rId247"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A249" r:id="rId248"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A250" r:id="rId249"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A251" r:id="rId250"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A252" r:id="rId251"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A253" r:id="rId252"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2331,7 +8936,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2414,7 +9019,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>https://transparencia.enargas.gob.ar/data.json</t>
+          <t>https://datosabiertos.rosario.gob.ar/data.json</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2424,29 +9029,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Datos abiertos del Ente Nacional Regulador del Gas</t>
+          <t>no-title</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>267</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10</v>
+        <v>811</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2458,366 +9063,12 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://datosabiertos.enacom.gob.ar/data.json</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>no-title</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>https://datos.arsat.com.ar/data.json</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portal de datos abiertos de ARSAT</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>30</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/jgm/data.json</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Datos de la Jefatura de Gabinete de Ministros</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>26</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>125</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/aaip/data.json</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Datos de la Agencia de Acceso a la Información Pública</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1169</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>http://monitoreo.datos.gob.ar/catalog/otros/data.json</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Datos APN</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>-470</v>
-      </c>
-      <c r="E7" t="n">
-        <v>17</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>136</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/modernizacion/data.json</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Datos Modernización</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1276</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>73</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>https://monitoreo.datos.gob.ar/catalog/smn/data.json</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Datos Meteorologicos</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>528</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
